--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1323226.233607596</v>
+        <v>1408593.539640856</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015062</v>
@@ -677,7 +679,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.75034801986922</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>118.2297801110689</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>26.29491925722977</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -871,7 +873,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>54.33890743374253</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>359.9103615620856</v>
       </c>
       <c r="F5" t="n">
-        <v>384.3692226390469</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>94.63119725265732</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813371</v>
+        <v>33.74703566813365</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>213.0300875370384</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>57.47007746145463</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.6891417132464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>315.0486226219556</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>242.5579072771298</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>97.48957067624174</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>35.33415019398285</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>25.87859906451666</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>230.6968828249254</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>168.1161921880573</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>369.3125589300689</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>201.66221878632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.04495496267745</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.1375486291686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680957</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>263.3429757223607</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>181.448709609577</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.14758999785307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>224.7411810187692</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.2904874124741172</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>125.9386813819902</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>265.9318059937533</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>263.3429757223598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>52.23490948285925</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>109.781165125545</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>324.2757366615657</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041362</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>118.7900992198</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>136.9973915638131</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>89.72280177868512</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>229.7965692041365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249712</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>114.2656173771023</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>147.0290144562265</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>158.1556649146111</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,16 +3480,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>267.3719245480339</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>150.7480622481085</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>313.0734949773367</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.832771274809039</v>
+        <v>18.26879610203962</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>200.6335085453921</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3803,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.7311630475653</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>36.15999212057412</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3980,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>227.7359967734935</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.1158122680958</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>52.04432991692011</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>143.9764333632473</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4310,19 +4312,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016545</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016545</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>670.32375641013</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.0311201051394</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>511.0311201051394</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>362.0967104438881</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810723</v>
+        <v>394.7584874425332</v>
       </c>
       <c r="W3" t="n">
-        <v>801.3675279810723</v>
+        <v>140.5211307143315</v>
       </c>
       <c r="X3" t="n">
-        <v>801.3675279810723</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y3" t="n">
-        <v>593.6072292161184</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434482</v>
@@ -4489,7 +4491,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
@@ -4498,10 +4500,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1028.294995503772</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>821.5079609142839</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>596.0389246722982</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9191357226248</v>
+        <v>596.0389246722982</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2346475167379</v>
+        <v>341.3544364664114</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2346475167379</v>
+        <v>341.3544364664114</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2346475167379</v>
+        <v>341.3544364664114</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2346475167379</v>
+        <v>341.3544364664114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150.217117571666</v>
+        <v>1319.806061306789</v>
       </c>
       <c r="C5" t="n">
-        <v>1150.217117571666</v>
+        <v>1319.806061306789</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.217117571666</v>
+        <v>1319.806061306789</v>
       </c>
       <c r="E5" t="n">
-        <v>1150.217117571666</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="F5" t="n">
-        <v>761.9653775322245</v>
+        <v>545.274336757499</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452733</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8654363913573</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780276</v>
+        <v>108.4604468780281</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818688</v>
+        <v>270.9975490818697</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373978</v>
+        <v>509.5409587373993</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176476</v>
+        <v>806.6359018176495</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058969</v>
+        <v>1113.151960058971</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836695</v>
+        <v>1389.251120836699</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921687</v>
+        <v>1590.39436592169</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T5" t="n">
-        <v>1481.280004915236</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="U5" t="n">
-        <v>1481.280004915236</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="V5" t="n">
-        <v>1150.217117571666</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="W5" t="n">
-        <v>1150.217117571666</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="X5" t="n">
-        <v>1150.217117571666</v>
+        <v>1319.806061306789</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.217117571666</v>
+        <v>1319.806061306789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.5730082480181</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="C6" t="n">
-        <v>449.5730082480181</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="D6" t="n">
-        <v>300.6385985867668</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="E6" t="n">
-        <v>205.0515306547897</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>205.0515306547897</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765398</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J6" t="n">
-        <v>184.305991640249</v>
+        <v>59.47586665324457</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520542</v>
+        <v>181.40299586505</v>
       </c>
       <c r="L6" t="n">
-        <v>516.501733974789</v>
+        <v>391.6716089877852</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315299</v>
+        <v>656.4020309445267</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343258</v>
+        <v>942.5477243562548</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943144</v>
+        <v>1182.095335530453</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557612</v>
+        <v>1601.1801108735</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232578</v>
+        <v>1693.078019232582</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.18015784311</v>
+        <v>1550.180157843114</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178449</v>
+        <v>1354.574272178453</v>
       </c>
       <c r="U6" t="n">
-        <v>1354.574272178449</v>
+        <v>1126.458064833937</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.422163946706</v>
+        <v>911.2761582308681</v>
       </c>
       <c r="W6" t="n">
-        <v>865.1848072185048</v>
+        <v>657.0388015026664</v>
       </c>
       <c r="X6" t="n">
-        <v>657.333307012972</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.5730082480181</v>
+        <v>449.1873012971336</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.52694723939</v>
+        <v>766.7459452354165</v>
       </c>
       <c r="C7" t="n">
-        <v>444.52694723939</v>
+        <v>766.7459452354165</v>
       </c>
       <c r="D7" t="n">
-        <v>444.52694723939</v>
+        <v>616.6293058230807</v>
       </c>
       <c r="E7" t="n">
-        <v>296.6138536569969</v>
+        <v>616.6293058230807</v>
       </c>
       <c r="F7" t="n">
-        <v>149.7239061590866</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="G7" t="n">
-        <v>149.7239061590866</v>
+        <v>301.4202559246571</v>
       </c>
       <c r="H7" t="n">
         <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135738</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652189</v>
+        <v>36.28512133652208</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128596</v>
+        <v>170.09824371286</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119585</v>
+        <v>396.8594047119591</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191535</v>
+        <v>646.3363778191543</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536165</v>
+        <v>895.315962536166</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580466</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933645</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.322155933645</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="T7" t="n">
-        <v>1178.322155933645</v>
+        <v>1237.811580102617</v>
       </c>
       <c r="U7" t="n">
-        <v>889.1856745624582</v>
+        <v>1237.811580102617</v>
       </c>
       <c r="V7" t="n">
-        <v>889.1856745624582</v>
+        <v>1237.811580102617</v>
       </c>
       <c r="W7" t="n">
-        <v>599.7685045254975</v>
+        <v>948.3944100656562</v>
       </c>
       <c r="X7" t="n">
-        <v>599.7685045254975</v>
+        <v>948.3944100656562</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.52694723939</v>
+        <v>948.3944100656562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.227517577121</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4823,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2317.33134125154</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1986.268453907969</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1633.499798637855</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.227517577121</v>
+        <v>1633.499798637855</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.227517577121</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034359</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>299.2648838844859</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>593.9684409159576</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>957.2304598751776</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.4526592426272</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>570.4526592426272</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4996,16 +4998,16 @@
         <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426272</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4526592426272</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.4526592426272</v>
+        <v>51.24678656800312</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.654488422265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C11" t="n">
-        <v>1247.691971481853</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>889.4262728751025</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>503.6380202768583</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>92.65211548725074</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2393.393660462198</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2003.254328486386</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,25 +5220,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
         <v>1494.054724415577</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1689.318139675982</v>
+        <v>2209.232076102165</v>
       </c>
       <c r="C14" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5282,46 +5284,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2839.523069976995</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2839.523069976995</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2839.523069976995</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X14" t="n">
-        <v>2466.057311715915</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2075.917979740103</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5431,19 +5433,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,28 +5457,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y16" t="n">
         <v>1273.262145272047</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5513,25 +5515,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W17" t="n">
-        <v>3121.906610713899</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5707,16 +5709,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1088.39866885016</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.908724368016</v>
+        <v>1088.39866885016</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.908724368016</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1930.094988518961</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C20" t="n">
-        <v>1561.13247157855</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D20" t="n">
-        <v>1202.866772971799</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E20" t="n">
-        <v>817.078520373555</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181387</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.602815829009</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2706.834160558895</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X20" t="n">
-        <v>2706.834160558895</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2316.694828583083</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.9108438165264</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C22" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.203338947628</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1105.559308646766</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2782.326111562134</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.450619821991</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2050.984861560912</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6065,10 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031482</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>441.1652223009114</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>441.1652223009114</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>291.0485828885757</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V25" t="n">
-        <v>1914.135768168901</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.71859813194</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X25" t="n">
-        <v>1396.729047233923</v>
+        <v>843.6062662746813</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>622.8136871311511</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1930.094988518961</v>
+        <v>1859.132475219473</v>
       </c>
       <c r="C26" t="n">
-        <v>1561.13247157855</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>1131.904259672311</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>746.1160070740671</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>335.1301022844595</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>335.1301022844595</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X26" t="n">
-        <v>2706.834160558895</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y26" t="n">
-        <v>2316.694828583083</v>
+        <v>2245.732315283595</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6315,7 +6317,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>362.8175152271513</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C28" t="n">
-        <v>362.8175152271513</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>362.8175152271513</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>362.8175152271513</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621292</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251686</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271513</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y28" t="n">
-        <v>362.8175152271513</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.66971909763</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926356</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030281</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339055</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>691.6489789975183</v>
+        <v>2050.54595878479</v>
       </c>
       <c r="C31" t="n">
-        <v>522.7127960696114</v>
+        <v>2050.54595878479</v>
       </c>
       <c r="D31" t="n">
-        <v>372.5961566572756</v>
+        <v>1900.429319372454</v>
       </c>
       <c r="E31" t="n">
-        <v>372.5961566572756</v>
+        <v>1752.516225790061</v>
       </c>
       <c r="F31" t="n">
-        <v>372.5961566572756</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G31" t="n">
-        <v>204.8933200319946</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971288</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.090022971288</v>
+        <v>2050.54595878479</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.297443827758</v>
+        <v>2050.54595878479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912087</v>
@@ -6719,31 +6721,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3234.976728903428</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6795,10 +6797,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962484</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622241</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039848</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541938</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916657</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>3120.355548834271</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T34" t="n">
-        <v>3120.355548834271</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U34" t="n">
-        <v>3120.355548834271</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V34" t="n">
-        <v>3120.355548834271</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="W34" t="n">
-        <v>3120.355548834271</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936254</v>
+        <v>1850.959245990302</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792724</v>
+        <v>1630.166666846772</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2196.097994299123</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.135477358711</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D35" t="n">
-        <v>1468.86977875196</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E35" t="n">
-        <v>1083.081526153716</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F35" t="n">
-        <v>672.0956213641086</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>257.0231712091051</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X35" t="n">
-        <v>2972.837166339056</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2582.697834363245</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.8553933260934</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1153.938940183752</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>899.2544519778656</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676408</v>
+        <v>899.2544519778656</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696235</v>
+        <v>899.2544519778656</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260934</v>
+        <v>678.4618728343355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.396382525582</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.43386558517</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1681669784198</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.369968096709</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.601312826595</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.135554565515</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.996222589704</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,13 +7268,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7336,46 +7338,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.594608541189</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335302</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983416</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>782.4929502983416</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1405.52688261361</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="C41" t="n">
-        <v>1405.52688261361</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D41" t="n">
-        <v>1405.52688261361</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E41" t="n">
-        <v>1019.738630015365</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>608.7527252257578</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810559</v>
@@ -7421,40 +7423,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653543</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2182.266054653543</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1792.126722677731</v>
+        <v>1524.033705649292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,37 +7505,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>271.9735439263268</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>103.0373609984199</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>103.0373609984199</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915318</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1191.821308835075</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>902.404138798114</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X43" t="n">
-        <v>674.4145879000966</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y43" t="n">
-        <v>453.6220087565665</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E44" t="n">
         <v>892.5704713767946</v>
@@ -7637,61 +7639,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912098</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081056</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3095.569461231905</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="45">
@@ -7716,31 +7718,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>385.564938772426</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C46" t="n">
-        <v>216.6287558445191</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1874.724517869382</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1683.038633696208</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1461.272018265734</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.097191887061</v>
+        <v>1461.272018265734</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.412703681174</v>
+        <v>1206.587530059847</v>
       </c>
       <c r="W46" t="n">
-        <v>1015.995533644213</v>
+        <v>917.1703600228861</v>
       </c>
       <c r="X46" t="n">
-        <v>788.0059827461959</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y46" t="n">
-        <v>567.2134036026657</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157959</v>
+        <v>25.82445471157936</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>149.0413681067564</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>248.6462269985641</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>26.48617644860171</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883076339</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780647</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>385.0431265889368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
-        <v>75.5034079543403</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>134.5760089460822</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>82.87897977084467</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="17">
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>41.60916672338459</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>147.5787499310931</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>206.0926883611506</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.4471047229262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>126.4919521192247</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>64.40928274777423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.4370633542417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>26.25399094013275</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>348.9504813049389</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.49528126457898</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>28.67595839356716</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>106.3881249561093</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>176.741833211046</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>58.45810500191487</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>26.63094880313123</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.757623350507686</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>19.46496000949072</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>97.95568926599836</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>75.50340795433958</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>147.578749931094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>92.83950704429091</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>3.556976973656987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>18.83991365757902</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>260.173663405345</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>14.67876349279823</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>138.7827017434033</v>
+        <v>130.3466769161727</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>210.2882171080614</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>213.5067756084883</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>110.2739705259951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>23.25917518540845</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>36.88782275312722</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>142.2354048423656</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777002.5761247687</v>
+        <v>777002.5761247689</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777002.5761247689</v>
+        <v>777002.5761247688</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777002.5761247688</v>
+        <v>777002.5761247687</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777002.5761247687</v>
+        <v>777002.5761247688</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777002.5761247687</v>
+        <v>777002.5761247686</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777002.5761247687</v>
+        <v>777002.5761247691</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777002.5761247688</v>
+        <v>777002.5761247689</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777002.5761247687</v>
+        <v>777002.5761247688</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777002.5761247689</v>
+        <v>777002.5761247688</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777002.5761247686</v>
+        <v>777002.5761247688</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="G2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="H2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="I2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="J2" t="n">
         <v>426246.3737136506</v>
@@ -26341,19 +26343,19 @@
         <v>426246.3737136508</v>
       </c>
       <c r="L2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="M2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="N2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="N2" t="n">
-        <v>426246.3737136511</v>
-      </c>
       <c r="O2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739494</v>
+        <v>176672.6241739504</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819081</v>
+        <v>223886.309381907</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171904</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640784</v>
+        <v>41076.98154640819</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946831</v>
+        <v>54988.29121946813</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>202681.4808264626</v>
+        <v>202681.4808264624</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
         <v>10380.34706710378</v>
@@ -26445,16 +26447,16 @@
         <v>10380.34706710378</v>
       </c>
       <c r="L4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="M4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="N4" t="n">
-        <v>10380.34706710387</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="O4" t="n">
-        <v>10380.34706710381</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="P4" t="n">
         <v>10380.34706710378</v>
@@ -26470,46 +26472,46 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792311</v>
+        <v>75746.87167923119</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26524,43 @@
         <v>-480317.3436051444</v>
       </c>
       <c r="C6" t="n">
-        <v>58050.12948553363</v>
+        <v>58050.12948553274</v>
       </c>
       <c r="D6" t="n">
-        <v>57192.47722108307</v>
+        <v>57192.47722108407</v>
       </c>
       <c r="E6" t="n">
-        <v>159486.7062679632</v>
+        <v>159486.7062679631</v>
       </c>
       <c r="F6" t="n">
         <v>341559.6860851536</v>
       </c>
       <c r="G6" t="n">
-        <v>341559.6860851536</v>
+        <v>341559.6860851535</v>
       </c>
       <c r="H6" t="n">
-        <v>341559.6860851536</v>
+        <v>341559.6860851537</v>
       </c>
       <c r="I6" t="n">
-        <v>341559.6860851537</v>
+        <v>341559.6860851538</v>
       </c>
       <c r="J6" t="n">
-        <v>272560.5316660394</v>
+        <v>272560.5316660396</v>
       </c>
       <c r="K6" t="n">
-        <v>300482.7045387459</v>
+        <v>300482.7045387455</v>
       </c>
       <c r="L6" t="n">
-        <v>286571.3948656855</v>
+        <v>286571.3948656856</v>
       </c>
       <c r="M6" t="n">
-        <v>294007.4202917387</v>
+        <v>294007.4202917389</v>
       </c>
       <c r="N6" t="n">
-        <v>341559.686085154</v>
+        <v>341559.6860851535</v>
       </c>
       <c r="O6" t="n">
-        <v>341559.6860851536</v>
+        <v>341559.6860851535</v>
       </c>
       <c r="P6" t="n">
         <v>341559.6860851537</v>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908055</v>
+        <v>751.4467899908065</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26790,46 +26792,46 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919662</v>
+        <v>423.3179548919672</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213273</v>
+        <v>137.3917762213281</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267337</v>
+        <v>182.6181021267328</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757589</v>
@@ -27012,10 +27014,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.60407489046</v>
+        <v>159.604074890461</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080718</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022537</v>
@@ -27027,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904597</v>
+        <v>159.6040748904611</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080719</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27258,10 +27260,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.60407489046</v>
+        <v>159.604074890461</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080718</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022537</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4038561153564</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9578041138323</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
@@ -27397,7 +27399,7 @@
         <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.78283562999812</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>87.54320509240854</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.2096836264342</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.919723068935</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>22.02000851017618</v>
       </c>
       <c r="F5" t="n">
-        <v>22.50682310266455</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>63.01388320274363</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>19.77049961238683</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>164.6856760439469</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.8955116388484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50.22426914905191</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.487342851332244</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>51.12590234197062</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>216.8034931298452</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053487</v>
+        <v>3.020891618053491</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339028</v>
+        <v>30.93770628339032</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050072</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677674</v>
+        <v>256.3943999677677</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599716</v>
+        <v>384.2687421599721</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159761</v>
+        <v>476.7193540159767</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285348</v>
+        <v>530.4421353285354</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383294</v>
+        <v>539.0252436383299</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113099</v>
+        <v>508.9862526113105</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906143</v>
+        <v>434.4079907906149</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190737</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025525</v>
+        <v>189.7610831025528</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639391</v>
+        <v>68.83856774639399</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802915</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442789</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546261</v>
+        <v>1.616319510546263</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395994</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328137</v>
+        <v>55.64959718328143</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433202</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499197</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876871</v>
+        <v>350.9469182876875</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449889</v>
+        <v>409.5385005449895</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345734</v>
+        <v>420.3777660345739</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587852</v>
+        <v>384.5635284587856</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077329</v>
+        <v>308.6461353077333</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970982</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633075</v>
+        <v>30.02242599633079</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807076</v>
+        <v>6.514901886807084</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950633</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720631</v>
+        <v>40.75058985720636</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390974</v>
+        <v>95.80330632390985</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029917</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165514</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706796</v>
+        <v>212.4130655706799</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379547</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488041</v>
+        <v>191.5326998488043</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.9287839884348</v>
+        <v>60.92878398843487</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544875</v>
+        <v>23.61513928544878</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879975</v>
+        <v>5.789835922879982</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548915</v>
+        <v>0.07391279901548924</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32251,7 +32253,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
         <v>473.099994678169</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32788,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33035,13 +33037,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33515,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953998</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34793,7 +34795,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108113</v>
+        <v>75.34849544108141</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149911</v>
+        <v>164.1788911149915</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459889</v>
+        <v>240.9529390459895</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012621</v>
+        <v>300.0959021012627</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417384</v>
+        <v>309.612180041739</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896232</v>
+        <v>278.8880411896238</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353448</v>
+        <v>203.1749950353454</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446243</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170624</v>
+        <v>25.86912147665373</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755607</v>
+        <v>123.158716375561</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078129</v>
+        <v>212.3925385078134</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229706</v>
+        <v>267.4044666229711</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512401</v>
+        <v>289.0360539512405</v>
       </c>
       <c r="O6" t="n">
-        <v>391.0086521210971</v>
+        <v>241.9672840143412</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934027</v>
+        <v>423.3179548919672</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107666</v>
+        <v>92.82617005967863</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308994</v>
+        <v>0.1957579144310273</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236963</v>
+        <v>2.444126207237076</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768675</v>
+        <v>229.0516777768678</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325202</v>
+        <v>251.9969425325205</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171833</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628437</v>
+        <v>216.117827762844</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691725</v>
+        <v>27.30642203691738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922506</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>418.422987301597</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36683,13 +36685,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687135</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
